--- a/src/main/java/TestSuite/MDOT/TestCases/MDOT/TC_PM_COA_SEC_ListView_D2.xlsx
+++ b/src/main/java/TestSuite/MDOT/TestCases/MDOT/TC_PM_COA_SEC_ListView_D2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AADTHAKUR\Documents\RStars_Automation\src\main\java\TestSuite\MDOT\TestCases\MDOT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\athakur\Documents\MDOT\rstars\src\main\java\TestSuite\MDOT\TestCases\MDOT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0699315A-B82C-4389-A422-1C5C573392B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EA486C3-E63C-40D4-BF09-B67701710D88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{79B22D0D-2409-4EC2-B3CC-F342799DAB2D}"/>
+    <workbookView xWindow="-80" yWindow="-80" windowWidth="19360" windowHeight="10360" xr2:uid="{79B22D0D-2409-4EC2-B3CC-F342799DAB2D}"/>
   </bookViews>
   <sheets>
     <sheet name="TestSteps" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="32">
   <si>
     <t>Keyword</t>
   </si>
@@ -128,6 +128,9 @@
   </si>
   <si>
     <t>J02</t>
+  </si>
+  <si>
+    <t>J02 - J02</t>
   </si>
 </sst>
 </file>
@@ -540,7 +543,7 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -664,14 +667,14 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="8.1796875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.36328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.6328125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19.81640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19.81640625" customWidth="1"/>
     <col min="6" max="6" width="15.6328125" bestFit="1" customWidth="1"/>
@@ -705,7 +708,7 @@
         <v>22</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>26</v>

--- a/src/main/java/TestSuite/MDOT/TestCases/MDOT/TC_PM_COA_SEC_ListView_D2.xlsx
+++ b/src/main/java/TestSuite/MDOT/TestCases/MDOT/TC_PM_COA_SEC_ListView_D2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\athakur\Documents\MDOT\rstars\src\main\java\TestSuite\MDOT\TestCases\MDOT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EA486C3-E63C-40D4-BF09-B67701710D88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE2243F6-58D4-48F3-B07D-DF464E296E68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-80" yWindow="-80" windowWidth="19360" windowHeight="10360" xr2:uid="{79B22D0D-2409-4EC2-B3CC-F342799DAB2D}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{79B22D0D-2409-4EC2-B3CC-F342799DAB2D}"/>
   </bookViews>
   <sheets>
     <sheet name="TestSteps" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="30">
   <si>
     <t>Keyword</t>
   </si>
@@ -100,9 +100,6 @@
     <t>WaitForPageLoad</t>
   </si>
   <si>
-    <t>J05</t>
-  </si>
-  <si>
     <t>Select Agency Code 1</t>
   </si>
   <si>
@@ -125,9 +122,6 @@
   </si>
   <si>
     <t>n\a</t>
-  </si>
-  <si>
-    <t>J02</t>
   </si>
   <si>
     <t>J02 - J02</t>
@@ -542,7 +536,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E6FE793-7437-4DAF-98C3-A71A3C2B5448}">
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
@@ -666,8 +660,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17C554DB-36E9-4880-AFC7-0740396E5474}">
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -694,7 +688,7 @@
         <v>19</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>20</v>
@@ -705,16 +699,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F2" s="4"/>
     </row>
@@ -723,16 +717,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F3" s="4"/>
     </row>
@@ -741,16 +735,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F4" s="4"/>
     </row>

--- a/src/main/java/TestSuite/MDOT/TestCases/MDOT/TC_PM_COA_SEC_ListView_D2.xlsx
+++ b/src/main/java/TestSuite/MDOT/TestCases/MDOT/TC_PM_COA_SEC_ListView_D2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\athakur\Documents\MDOT\rstars\src\main\java\TestSuite\MDOT\TestCases\MDOT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE2243F6-58D4-48F3-B07D-DF464E296E68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7CA1629-2B89-4F2F-BC0C-D36C468ABA61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{79B22D0D-2409-4EC2-B3CC-F342799DAB2D}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="32">
   <si>
     <t>Keyword</t>
   </si>
@@ -125,6 +125,12 @@
   </si>
   <si>
     <t>J02 - J02</t>
+  </si>
+  <si>
+    <t>Select Agency Object Group Profile</t>
+  </si>
+  <si>
+    <t>AGENCY OBJECT GROUP PROFILE</t>
   </si>
 </sst>
 </file>
@@ -658,18 +664,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17C554DB-36E9-4880-AFC7-0740396E5474}">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="8.1796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.36328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.81640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7.6328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.26953125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19.81640625" customWidth="1"/>
     <col min="6" max="6" width="15.6328125" bestFit="1" customWidth="1"/>
   </cols>
@@ -748,6 +754,24 @@
       </c>
       <c r="F4" s="4"/>
     </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5" s="4">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5" s="4"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/main/java/TestSuite/MDOT/TestCases/MDOT/TC_PM_COA_SEC_ListView_D2.xlsx
+++ b/src/main/java/TestSuite/MDOT/TestCases/MDOT/TC_PM_COA_SEC_ListView_D2.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\athakur\Documents\MDOT\rstars\src\main\java\TestSuite\MDOT\TestCases\MDOT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pdighe\Documents\MDOT\rstars\src\main\java\TestSuite\MDOT\TestCases\MDOT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7CA1629-2B89-4F2F-BC0C-D36C468ABA61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEF61282-7D7F-4C75-8D75-689E572054FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{79B22D0D-2409-4EC2-B3CC-F342799DAB2D}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="34">
   <si>
     <t>Keyword</t>
   </si>
@@ -131,6 +131,12 @@
   </si>
   <si>
     <t>AGENCY OBJECT GROUP PROFILE</t>
+  </si>
+  <si>
+    <t>Select Agency GL Account Profile</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> AGENCY GL ACCOUNT PROFILE </t>
   </si>
 </sst>
 </file>
@@ -543,7 +549,7 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -664,10 +670,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17C554DB-36E9-4880-AFC7-0740396E5474}">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -772,6 +778,160 @@
       </c>
       <c r="F5" s="4"/>
     </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6" s="4">
+        <v>5</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" s="4"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A8" s="4"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A10" s="4"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A11" s="4"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A12" s="4"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A13" s="4"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A14" s="4"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A15" s="4"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A16" s="4"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A17" s="4"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A18" s="4"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A19" s="4"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A20" s="4"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A21" s="4"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A22" s="4"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A23" s="4"/>
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/main/java/TestSuite/MDOT/TestCases/MDOT/TC_PM_COA_SEC_ListView_D2.xlsx
+++ b/src/main/java/TestSuite/MDOT/TestCases/MDOT/TC_PM_COA_SEC_ListView_D2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pdighe\Documents\MDOT\rstars\src\main\java\TestSuite\MDOT\TestCases\MDOT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEF61282-7D7F-4C75-8D75-689E572054FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20846E2C-F951-4F52-BBD9-80A9A9D8CDB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{79B22D0D-2409-4EC2-B3CC-F342799DAB2D}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="36">
   <si>
     <t>Keyword</t>
   </si>
@@ -137,6 +137,12 @@
   </si>
   <si>
     <t xml:space="preserve"> AGENCY GL ACCOUNT PROFILE </t>
+  </si>
+  <si>
+    <t>checkAccessibility</t>
+  </si>
+  <si>
+    <t>TC_PM_COA_SEC_ListView_D2</t>
   </si>
 </sst>
 </file>
@@ -226,12 +232,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -546,10 +555,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E6FE793-7437-4DAF-98C3-A71A3C2B5448}">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -598,14 +607,12 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>10</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
       <c r="F3" s="3"/>
@@ -615,10 +622,10 @@
         <v>9</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
@@ -626,13 +633,13 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
@@ -640,7 +647,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>13</v>
@@ -653,6 +660,15 @@
       <c r="F6" s="3"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
       <c r="F7" s="3"/>
@@ -661,6 +677,11 @@
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="F8" s="3"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -673,7 +694,7 @@
   <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/src/main/java/TestSuite/MDOT/TestCases/MDOT/TC_PM_COA_SEC_ListView_D2.xlsx
+++ b/src/main/java/TestSuite/MDOT/TestCases/MDOT/TC_PM_COA_SEC_ListView_D2.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pdighe\Documents\MDOT\rstars\src\main\java\TestSuite\MDOT\TestCases\MDOT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\athakur\Documents\MDOT\rstar\rstars\src\main\java\TestSuite\MDOT\TestCases\MDOT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEF61282-7D7F-4C75-8D75-689E572054FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E047452-7D09-4CF2-84EB-CF85E3A014E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{79B22D0D-2409-4EC2-B3CC-F342799DAB2D}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="36">
   <si>
     <t>Keyword</t>
   </si>
@@ -109,15 +109,6 @@
     <t>Select Agency Code 3</t>
   </si>
   <si>
-    <t xml:space="preserve"> Agency Code 2 Profile </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Agency Code 1 Profile </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Agency Code 3 Profile </t>
-  </si>
-  <si>
     <t>Fiscal</t>
   </si>
   <si>
@@ -137,6 +128,21 @@
   </si>
   <si>
     <t xml:space="preserve"> AGENCY GL ACCOUNT PROFILE </t>
+  </si>
+  <si>
+    <t>checkAccessibility</t>
+  </si>
+  <si>
+    <t>TC_PM_COA_SEC_ListView_D2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> AGENCY CODE 1 PROFILE</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> AGENCY CODE 2 PROFILE</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> AGENCY CODE 3 PROFILE</t>
   </si>
 </sst>
 </file>
@@ -546,10 +552,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E6FE793-7437-4DAF-98C3-A71A3C2B5448}">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -598,14 +604,12 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>10</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
       <c r="F3" s="3"/>
@@ -615,10 +619,10 @@
         <v>9</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
@@ -626,13 +630,13 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
@@ -640,7 +644,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>13</v>
@@ -653,6 +657,15 @@
       <c r="F6" s="3"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
       <c r="F7" s="3"/>
@@ -661,6 +674,11 @@
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="F8" s="3"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -673,7 +691,7 @@
   <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -700,7 +718,7 @@
         <v>19</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>20</v>
@@ -714,13 +732,13 @@
         <v>21</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D2" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>25</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>28</v>
       </c>
       <c r="F2" s="4"/>
     </row>
@@ -732,13 +750,13 @@
         <v>22</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F3" s="4"/>
     </row>
@@ -750,13 +768,13 @@
         <v>23</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F4" s="4"/>
     </row>
@@ -765,16 +783,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F5" s="4"/>
     </row>
@@ -783,16 +801,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F6" s="4"/>
     </row>
